--- a/data/lit_review/processed/one_vs_two_comp_methods.xlsx
+++ b/data/lit_review/processed/one_vs_two_comp_methods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/round1/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6783A1E6-6291-2742-BC58-AD8689F0D99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E813571-8B7C-F04A-95D7-D416FA1B5DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="5240" windowWidth="27640" windowHeight="16940" xr2:uid="{08C390A7-1387-BC49-A6F1-05BC43167C27}"/>
+    <workbookView xWindow="8120" yWindow="1500" windowWidth="27640" windowHeight="16940" xr2:uid="{08C390A7-1387-BC49-A6F1-05BC43167C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,146 +25,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>paper_id</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>article_title</t>
   </si>
   <si>
-    <t>comm_name</t>
-  </si>
-  <si>
-    <t>sci_name</t>
-  </si>
-  <si>
-    <t>syndrome</t>
-  </si>
-  <si>
-    <t>hab_species</t>
-  </si>
-  <si>
-    <t>study_type</t>
-  </si>
-  <si>
     <t>Lopes et al. (2014)</t>
   </si>
   <si>
     <t>Uptake, transfer and elimination kinetics of paralytic shellfish toxins in common octopus (Octopus vulgaris)</t>
   </si>
   <si>
-    <t>Common octopus</t>
-  </si>
-  <si>
-    <t>Octopus vulgaris</t>
-  </si>
-  <si>
-    <t>Paralytic</t>
-  </si>
-  <si>
-    <t>Gymnodinium catenatum</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
     <t>Mafra et al. (2010)</t>
   </si>
   <si>
     <t>Domoic acid uptake and elimination kinetics in oysters and mussels in relation to body size and anatomical distribution of toxin</t>
   </si>
   <si>
-    <t>Eastern oyster</t>
-  </si>
-  <si>
-    <t>Crassostrea virginica</t>
-  </si>
-  <si>
-    <t>Amnesic</t>
-  </si>
-  <si>
-    <t>Pseudo-nitzschia multiseries</t>
-  </si>
-  <si>
-    <t>Blue mussel</t>
-  </si>
-  <si>
-    <t>Mytilus edulis</t>
-  </si>
-  <si>
     <t>Alvarez et al. (2020)</t>
   </si>
   <si>
     <t>Rapid Domoic Acid Depuration in the Scallop Argopecten purpuratus and Its Transfer from the Digestive Gland to Other Organs</t>
   </si>
   <si>
-    <t>Peruvian calico scallop</t>
-  </si>
-  <si>
-    <t>Argopecten purpuratus</t>
-  </si>
-  <si>
-    <t>Pseudo-nitzschia australis</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
     <t>Nielsen et al. (2016)</t>
   </si>
   <si>
     <t>Accumulation, transformation and breakdown of DSP toxins from the toxic dinoflagellate Dinophysis acuta in blue mussels, Mytilus edulis</t>
   </si>
   <si>
-    <t>Diarrhetic</t>
-  </si>
-  <si>
-    <t>Dinophysis acuta</t>
-  </si>
-  <si>
     <t>Moroño et al. (2003)</t>
   </si>
   <si>
     <t>Accumulation and transformation of DSP toxins in mussels Mytilus galloprovincialis during a toxic episode caused by Dinophysis acuminata</t>
   </si>
   <si>
-    <t>Mediterranean mussel</t>
-  </si>
-  <si>
-    <t>Mytilus galloprovincialis</t>
-  </si>
-  <si>
-    <t>Dinophysis acuminata</t>
-  </si>
-  <si>
     <t>Blanco et al. (1999)</t>
   </si>
   <si>
     <t>Okadaic acid depuration in the mussel Mytilus galloprovincialis:: one- and two-compartment models and the effect of environmental conditions</t>
   </si>
   <si>
-    <t>Dinophysis spp.</t>
-  </si>
-  <si>
-    <t>field (non-toxic site)</t>
-  </si>
-  <si>
     <t>Jauffrais et al. (2012)</t>
   </si>
   <si>
     <t>Azaspiracid accumulation, detoxification and biotransformation in blue mussels (Mytilus edulis) experimentally fed Azadinium spinosum</t>
   </si>
   <si>
-    <t>Azaspiracid</t>
-  </si>
-  <si>
-    <t>Azadinium spinosum</t>
-  </si>
-  <si>
     <t>ncomp</t>
   </si>
   <si>
@@ -174,10 +84,34 @@
     <t>method</t>
   </si>
   <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>selected?</t>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Table 2 vs 3</t>
+  </si>
+  <si>
+    <t>Kennedy et al. (1992)</t>
+  </si>
+  <si>
+    <t>TOXICOKINETICS OF BREVETOXIN PBTX-3 IN THE GULF TOADFISH, OPSANUS-BETA, FOLLOWING INTRAVENOUS ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>one vs. two vs. three</t>
+  </si>
+  <si>
+    <t>Woofter et al. (2005)-1</t>
+  </si>
+  <si>
+    <t>Uptake and elimination of brevetoxin in blood of striped mullet (Mugil cephalus) after aqueous exposure to Karenia brevis</t>
+  </si>
+  <si>
+    <t>Figure 7; examination of residuals</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Expert judgement</t>
   </si>
 </sst>
 </file>
@@ -253,9 +187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -293,7 +227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -399,7 +333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,25 +483,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D812B3AF-3645-AE48-8501-646152072669}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,304 +506,151 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2">
-        <v>62</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2">
-        <v>110</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I11" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="A2:A8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/lit_review/processed/one_vs_two_comp_methods.xlsx
+++ b/data/lit_review/processed/one_vs_two_comp_methods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/lit_review/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E813571-8B7C-F04A-95D7-D416FA1B5DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E106E5A6-3B30-6F4B-8334-24870B22BCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="1500" windowWidth="27640" windowHeight="16940" xr2:uid="{08C390A7-1387-BC49-A6F1-05BC43167C27}"/>
+    <workbookView xWindow="11840" yWindow="1340" windowWidth="27640" windowHeight="16940" xr2:uid="{08C390A7-1387-BC49-A6F1-05BC43167C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>paper_id</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>Expert judgement</t>
+  </si>
+  <si>
+    <t>which_best</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>one w/ envi or two w/out envi</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>one sufficient, though two slighlty better R2</t>
+  </si>
+  <si>
+    <t>one; two not markedly better</t>
+  </si>
+  <si>
+    <t>one; though the authors criticize both</t>
   </si>
 </sst>
 </file>
@@ -138,18 +162,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,11 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D812B3AF-3645-AE48-8501-646152072669}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,10 +514,11 @@
     <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,10 +532,13 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -528,25 +551,31 @@
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -560,10 +589,13 @@
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -576,8 +608,11 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -590,8 +625,11 @@
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -604,8 +642,11 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -618,8 +659,11 @@
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -632,8 +676,11 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -646,9 +693,12 @@
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
     <sortCondition ref="A2:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
